--- a/March2024/Results/Eolica/Results_Stats.xlsx
+++ b/March2024/Results/Eolica/Results_Stats.xlsx
@@ -17,6 +17,7 @@
     <sheet name="x_df" r:id="rId4" sheetId="2"/>
     <sheet name="q_df" r:id="rId6" sheetId="3"/>
     <sheet name="q_df_Test" r:id="rId7" sheetId="4"/>
+    <sheet name="Indicator" r:id="rId8" sheetId="5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>λ</t>
   </si>
@@ -72,6 +73,9 @@
     <t>CVaR</t>
   </si>
   <si>
+    <t>CVaR Up</t>
+  </si>
+  <si>
     <t>q 1%</t>
   </si>
   <si>
@@ -97,6 +101,18 @@
   </si>
   <si>
     <t>q 99%</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Indicator</t>
+  </si>
+  <si>
+    <t>In Sample</t>
+  </si>
+  <si>
+    <t>Out of Sample</t>
   </si>
 </sst>
 </file>
@@ -561,13 +577,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -601,8 +617,11 @@
       <c r="K1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>40.66403057970517</v>
       </c>
@@ -610,34 +629,37 @@
         <v>34.08453003041156</v>
       </c>
       <c r="C2">
+        <v>46.54209281115142</v>
+      </c>
+      <c r="D2">
         <v>33.04793690998236</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>36.40411440969467</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>38.1193796109877</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>39.66950423221718</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>40.7942212505092</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>41.834885084540325</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>42.93981496558585</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>44.36863792117075</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>47.481500744658796</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>40.66403057970517</v>
       </c>
@@ -645,34 +667,37 @@
         <v>34.08453003041156</v>
       </c>
       <c r="C3">
+        <v>46.54209281115142</v>
+      </c>
+      <c r="D3">
         <v>33.04793690998236</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>36.40411440969467</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>38.1193796109877</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>39.66950423221718</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>40.7942212505092</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>41.834885084540325</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>42.93981496558585</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>44.36863792117075</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>47.481500744658796</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>40.56451635292952</v>
       </c>
@@ -680,34 +705,37 @@
         <v>35.37848537918687</v>
       </c>
       <c r="C4">
+        <v>48.75345679148524</v>
+      </c>
+      <c r="D4">
         <v>34.24445604566423</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>37.11895340291819</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>38.11181411642743</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>39.29085249401288</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>40.29457533179565</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>41.36089379652949</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>42.99252657935034</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>45.48790422646217</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>50.13591051143936</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>40.471735515549355</v>
       </c>
@@ -715,34 +743,37 @@
         <v>35.9146384658025</v>
       </c>
       <c r="C5">
+        <v>51.19251517503321</v>
+      </c>
+      <c r="D5">
         <v>34.76015038575566</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>37.21309555384803</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>37.91230258261892</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>38.87652528436196</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>39.827830569155445</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>41.05007278125964</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>43.15972325013119</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>46.82042324015346</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>53.41569533097848</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>40.4338370138976</v>
       </c>
@@ -750,34 +781,37 @@
         <v>35.99408898981119</v>
       </c>
       <c r="C6">
+        <v>52.24125468849793</v>
+      </c>
+      <c r="D6">
         <v>34.88358625510475</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>37.14885823526369</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>37.771659332277544</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>38.65358102459603</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>39.66801570457857</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>40.92598110479045</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>43.327510267917695</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>47.435038115881355</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>54.97057849940729</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>40.4338370138976</v>
       </c>
@@ -785,34 +819,37 @@
         <v>35.99408898981119</v>
       </c>
       <c r="C7">
+        <v>52.24125468849793</v>
+      </c>
+      <c r="D7">
         <v>34.88358625510475</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>37.14885823526369</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>37.771659332277544</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>38.65358102459603</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>39.66801570457857</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>40.92598110479045</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>43.327510267917695</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>47.435038115881355</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>54.97057849940729</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>40.42428707705006</v>
       </c>
@@ -820,34 +857,37 @@
         <v>35.995968908500146</v>
       </c>
       <c r="C8">
+        <v>52.51474644524063</v>
+      </c>
+      <c r="D8">
         <v>34.914690512677744</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>37.142771394415846</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>37.731507271340604</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>38.60451173529931</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>39.61670735977474</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>40.89098999785057</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>43.489019076174124</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>47.6491061289821</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>55.42319335934528</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>40.42103466631787</v>
       </c>
@@ -855,34 +895,37 @@
         <v>35.99615301691535</v>
       </c>
       <c r="C9">
+        <v>52.60819176305384</v>
+      </c>
+      <c r="D9">
         <v>34.92528365300548</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>37.12822450108557</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>37.73395095900902</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>38.582848490342236</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>39.59606566421116</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>40.89166365508143</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>43.58869260345125</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>47.8272916627882</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>55.56079974511501</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>40.42103466631787</v>
       </c>
@@ -890,34 +933,37 @@
         <v>35.99615301691535</v>
       </c>
       <c r="C10">
+        <v>52.60819176305384</v>
+      </c>
+      <c r="D10">
         <v>34.92528365300548</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>37.12822450108557</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>37.73395095900902</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>38.582848490342236</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>39.59606566421116</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>40.89166365508143</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>43.58869260345125</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>47.8272916627882</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>55.56079974511501</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>40.28812386688289</v>
       </c>
@@ -925,30 +971,33 @@
         <v>35.81957930393158</v>
       </c>
       <c r="C11">
+        <v>56.745150389162</v>
+      </c>
+      <c r="D11">
         <v>35.29937720203235</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>36.58796876183224</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>37.033540120706455</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>37.879939627837125</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>38.89726389096876</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>40.52361075643025</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>44.81561195703399</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>50.97538052418533</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>60.071711886155995</v>
       </c>
     </row>
@@ -959,13 +1008,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -999,8 +1048,11 @@
       <c r="K1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>40.75052123786312</v>
       </c>
@@ -1008,34 +1060,37 @@
         <v>34.57873198058928</v>
       </c>
       <c r="C2">
+        <v>46.76513416202099</v>
+      </c>
+      <c r="D2">
         <v>33.032835917420016</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>36.637795893450885</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>37.89708492788279</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>39.521989844830486</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>40.8747887964586</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>42.003670702158146</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>43.110439007058886</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>44.2252549299667</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>48.63190342059283</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>40.75052123786312</v>
       </c>
@@ -1043,34 +1098,37 @@
         <v>34.57873198058928</v>
       </c>
       <c r="C3">
+        <v>46.76513416202099</v>
+      </c>
+      <c r="D3">
         <v>33.032835917420016</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>36.637795893450885</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>37.89708492788279</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>39.521989844830486</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>40.8747887964586</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>42.003670702158146</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>43.110439007058886</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>44.2252549299667</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>48.63190342059283</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>40.633459796752824</v>
       </c>
@@ -1078,34 +1136,37 @@
         <v>35.49283078755161</v>
       </c>
       <c r="C4">
+        <v>49.06551843706002</v>
+      </c>
+      <c r="D4">
         <v>34.144385553503916</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>37.1662890075525</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>37.923441687592415</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>39.22026161042869</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>40.35989938284873</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>41.651883123186195</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>42.980989057784065</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>44.330501068233865</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>51.73753771710576</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>40.52431903484315</v>
       </c>
@@ -1113,34 +1174,37 @@
         <v>35.805256476948955</v>
       </c>
       <c r="C5">
+        <v>51.517165599585155</v>
+      </c>
+      <c r="D5">
         <v>34.939547577643346</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>37.18087906813235</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>37.82861817621252</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>38.8698829758227</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>39.91748846067861</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>41.304458312894035</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>43.26350414858873</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>45.81525506201851</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>55.48613598263889</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>40.47973793962672</v>
       </c>
@@ -1148,34 +1212,37 @@
         <v>35.84776699457662</v>
       </c>
       <c r="C6">
+        <v>52.6302099994096</v>
+      </c>
+      <c r="D6">
         <v>34.85068334451857</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>37.11947981869121</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>37.69353562824021</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>38.690043236003795</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>39.75081298645583</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>41.15146235556456</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>43.44215405352177</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>46.55261687325676</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>56.747924760746855</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>40.47973793962672</v>
       </c>
@@ -1183,34 +1250,37 @@
         <v>35.84776699457662</v>
       </c>
       <c r="C7">
+        <v>52.6302099994096</v>
+      </c>
+      <c r="D7">
         <v>34.85068334451857</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>37.11947981869121</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>37.69353562824021</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>38.690043236003795</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>39.75081298645583</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>41.15146235556456</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>43.44215405352177</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>46.55261687325676</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>56.747924760746855</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>40.46850407482058</v>
       </c>
@@ -1218,34 +1288,37 @@
         <v>35.851483962017156</v>
       </c>
       <c r="C8">
+        <v>52.9145606564706</v>
+      </c>
+      <c r="D8">
         <v>34.82829069633037</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>37.10004070595932</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>37.66776414276274</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>38.65153325893208</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>39.69732325998041</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>41.14357576141844</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>43.50107194884111</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>46.67386564486676</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>56.980071801384966</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>40.46467817072898</v>
       </c>
@@ -1253,34 +1326,37 @@
         <v>35.85189291576656</v>
       </c>
       <c r="C9">
+        <v>53.01167632407534</v>
+      </c>
+      <c r="D9">
         <v>34.82066445853928</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>37.09873877357805</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>37.681377291197485</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>38.63324313754997</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>39.67688758010564</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>41.151906455737</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>43.52670669340539</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>46.70417121217516</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>57.05913384529899</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>40.46467817072898</v>
       </c>
@@ -1288,34 +1364,37 @@
         <v>35.85189291576656</v>
       </c>
       <c r="C10">
+        <v>53.01167632407534</v>
+      </c>
+      <c r="D10">
         <v>34.82066445853928</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>37.09873877357805</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>37.681377291197485</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>38.63324313754997</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>39.67688758010564</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>41.151906455737</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>43.52670669340539</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>46.70417121217516</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>57.05913384529899</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>40.30833138268572</v>
       </c>
@@ -1323,31 +1402,71 @@
         <v>35.719917433467046</v>
       </c>
       <c r="C11">
+        <v>56.99935092604535</v>
+      </c>
+      <c r="D11">
         <v>35.20400816948988</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>36.491078154182524</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>37.05884579947541</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>37.93133544817841</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>39.015215548140766</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>40.714218118590956</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>44.634011435851384</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>48.71725879274607</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>62.018613754751215</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>-25.81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>-34.17</v>
       </c>
     </row>
   </sheetData>

--- a/March2024/Results/Eolica/Results_Stats.xlsx
+++ b/March2024/Results/Eolica/Results_Stats.xlsx
@@ -623,382 +623,382 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>40.66403057970517</v>
+        <v>81.32806115941034</v>
       </c>
       <c r="B2">
-        <v>34.08453003041156</v>
+        <v>68.16906006082311</v>
       </c>
       <c r="C2">
-        <v>46.54209281115142</v>
+        <v>93.08418562230284</v>
       </c>
       <c r="D2">
-        <v>33.04793690998236</v>
+        <v>66.09587381996472</v>
       </c>
       <c r="E2">
-        <v>36.40411440969467</v>
+        <v>72.80822881938934</v>
       </c>
       <c r="F2">
-        <v>38.1193796109877</v>
+        <v>76.2387592219754</v>
       </c>
       <c r="G2">
-        <v>39.66950423221718</v>
+        <v>79.33900846443436</v>
       </c>
       <c r="H2">
-        <v>40.7942212505092</v>
+        <v>81.5884425010184</v>
       </c>
       <c r="I2">
-        <v>41.834885084540325</v>
+        <v>83.66977016908065</v>
       </c>
       <c r="J2">
-        <v>42.93981496558585</v>
+        <v>85.8796299311717</v>
       </c>
       <c r="K2">
-        <v>44.36863792117075</v>
+        <v>88.7372758423415</v>
       </c>
       <c r="L2">
-        <v>47.481500744658796</v>
+        <v>94.96300148931759</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>40.66403057970517</v>
+        <v>81.32806115941034</v>
       </c>
       <c r="B3">
-        <v>34.08453003041156</v>
+        <v>68.16906006082311</v>
       </c>
       <c r="C3">
-        <v>46.54209281115142</v>
+        <v>93.08418562230284</v>
       </c>
       <c r="D3">
-        <v>33.04793690998236</v>
+        <v>66.09587381996472</v>
       </c>
       <c r="E3">
-        <v>36.40411440969467</v>
+        <v>72.80822881938934</v>
       </c>
       <c r="F3">
-        <v>38.1193796109877</v>
+        <v>76.2387592219754</v>
       </c>
       <c r="G3">
-        <v>39.66950423221718</v>
+        <v>79.33900846443436</v>
       </c>
       <c r="H3">
-        <v>40.7942212505092</v>
+        <v>81.5884425010184</v>
       </c>
       <c r="I3">
-        <v>41.834885084540325</v>
+        <v>83.66977016908065</v>
       </c>
       <c r="J3">
-        <v>42.93981496558585</v>
+        <v>85.8796299311717</v>
       </c>
       <c r="K3">
-        <v>44.36863792117075</v>
+        <v>88.7372758423415</v>
       </c>
       <c r="L3">
-        <v>47.481500744658796</v>
+        <v>94.96300148931759</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>40.56451635292952</v>
+        <v>81.12903270585905</v>
       </c>
       <c r="B4">
-        <v>35.37848537918687</v>
+        <v>70.75697075837374</v>
       </c>
       <c r="C4">
-        <v>48.75345679148524</v>
+        <v>97.50691358297048</v>
       </c>
       <c r="D4">
-        <v>34.24445604566423</v>
+        <v>68.48891209132846</v>
       </c>
       <c r="E4">
-        <v>37.11895340291819</v>
+        <v>74.23790680583637</v>
       </c>
       <c r="F4">
-        <v>38.11181411642743</v>
+        <v>76.22362823285486</v>
       </c>
       <c r="G4">
-        <v>39.29085249401288</v>
+        <v>78.58170498802576</v>
       </c>
       <c r="H4">
-        <v>40.29457533179565</v>
+        <v>80.5891506635913</v>
       </c>
       <c r="I4">
-        <v>41.36089379652949</v>
+        <v>82.72178759305898</v>
       </c>
       <c r="J4">
-        <v>42.99252657935034</v>
+        <v>85.98505315870068</v>
       </c>
       <c r="K4">
-        <v>45.48790422646217</v>
+        <v>90.97580845292434</v>
       </c>
       <c r="L4">
-        <v>50.13591051143936</v>
+        <v>100.27182102287873</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>40.471735515549355</v>
+        <v>80.94347103109871</v>
       </c>
       <c r="B5">
-        <v>35.9146384658025</v>
+        <v>71.829276931605</v>
       </c>
       <c r="C5">
-        <v>51.19251517503321</v>
+        <v>102.38503035006642</v>
       </c>
       <c r="D5">
-        <v>34.76015038575566</v>
+        <v>69.52030077151132</v>
       </c>
       <c r="E5">
-        <v>37.21309555384803</v>
+        <v>74.42619110769606</v>
       </c>
       <c r="F5">
-        <v>37.91230258261892</v>
+        <v>75.82460516523784</v>
       </c>
       <c r="G5">
-        <v>38.87652528436196</v>
+        <v>77.75305056872392</v>
       </c>
       <c r="H5">
-        <v>39.827830569155445</v>
+        <v>79.65566113831089</v>
       </c>
       <c r="I5">
-        <v>41.05007278125964</v>
+        <v>82.10014556251927</v>
       </c>
       <c r="J5">
-        <v>43.15972325013119</v>
+        <v>86.31944650026237</v>
       </c>
       <c r="K5">
-        <v>46.82042324015346</v>
+        <v>93.64084648030692</v>
       </c>
       <c r="L5">
-        <v>53.41569533097848</v>
+        <v>106.83139066195696</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>40.4338370138976</v>
+        <v>80.86767402779523</v>
       </c>
       <c r="B6">
-        <v>35.99408898981119</v>
+        <v>71.98817797962238</v>
       </c>
       <c r="C6">
-        <v>52.24125468849793</v>
+        <v>104.48250937699585</v>
       </c>
       <c r="D6">
-        <v>34.88358625510475</v>
+        <v>69.7671725102095</v>
       </c>
       <c r="E6">
-        <v>37.14885823526369</v>
+        <v>74.29771647052735</v>
       </c>
       <c r="F6">
-        <v>37.771659332277544</v>
+        <v>75.54331866455509</v>
       </c>
       <c r="G6">
-        <v>38.65358102459603</v>
+        <v>77.30716204919206</v>
       </c>
       <c r="H6">
-        <v>39.66801570457857</v>
+        <v>79.33603140915714</v>
       </c>
       <c r="I6">
-        <v>40.92598110479045</v>
+        <v>81.8519622095809</v>
       </c>
       <c r="J6">
-        <v>43.327510267917695</v>
+        <v>86.65502053583539</v>
       </c>
       <c r="K6">
-        <v>47.435038115881355</v>
+        <v>94.8700762317627</v>
       </c>
       <c r="L6">
-        <v>54.97057849940729</v>
+        <v>109.94115699881455</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
-        <v>40.4338370138976</v>
+        <v>80.86767402779523</v>
       </c>
       <c r="B7">
-        <v>35.99408898981119</v>
+        <v>71.98817797962238</v>
       </c>
       <c r="C7">
-        <v>52.24125468849793</v>
+        <v>104.48250937699585</v>
       </c>
       <c r="D7">
-        <v>34.88358625510475</v>
+        <v>69.7671725102095</v>
       </c>
       <c r="E7">
-        <v>37.14885823526369</v>
+        <v>74.29771647052735</v>
       </c>
       <c r="F7">
-        <v>37.771659332277544</v>
+        <v>75.54331866455509</v>
       </c>
       <c r="G7">
-        <v>38.65358102459603</v>
+        <v>77.30716204919206</v>
       </c>
       <c r="H7">
-        <v>39.66801570457857</v>
+        <v>79.33603140915714</v>
       </c>
       <c r="I7">
-        <v>40.92598110479045</v>
+        <v>81.8519622095809</v>
       </c>
       <c r="J7">
-        <v>43.327510267917695</v>
+        <v>86.65502053583539</v>
       </c>
       <c r="K7">
-        <v>47.435038115881355</v>
+        <v>94.8700762317627</v>
       </c>
       <c r="L7">
-        <v>54.97057849940729</v>
+        <v>109.94115699881455</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
-        <v>40.42428707705006</v>
+        <v>80.84857415410012</v>
       </c>
       <c r="B8">
-        <v>35.995968908500146</v>
+        <v>71.99193781700029</v>
       </c>
       <c r="C8">
-        <v>52.51474644524063</v>
+        <v>105.02949289048127</v>
       </c>
       <c r="D8">
-        <v>34.914690512677744</v>
+        <v>69.82938102535549</v>
       </c>
       <c r="E8">
-        <v>37.142771394415846</v>
+        <v>74.28554278883169</v>
       </c>
       <c r="F8">
-        <v>37.731507271340604</v>
+        <v>75.46301454268121</v>
       </c>
       <c r="G8">
-        <v>38.60451173529931</v>
+        <v>77.20902347059862</v>
       </c>
       <c r="H8">
-        <v>39.61670735977474</v>
+        <v>79.23341471954949</v>
       </c>
       <c r="I8">
-        <v>40.89098999785057</v>
+        <v>81.78197999570114</v>
       </c>
       <c r="J8">
-        <v>43.489019076174124</v>
+        <v>86.97803815234825</v>
       </c>
       <c r="K8">
-        <v>47.6491061289821</v>
+        <v>95.2982122579642</v>
       </c>
       <c r="L8">
-        <v>55.42319335934528</v>
+        <v>110.84638671869055</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
-        <v>40.42103466631787</v>
+        <v>80.84206933263575</v>
       </c>
       <c r="B9">
-        <v>35.99615301691535</v>
+        <v>71.9923060338307</v>
       </c>
       <c r="C9">
-        <v>52.60819176305384</v>
+        <v>105.21638352610768</v>
       </c>
       <c r="D9">
-        <v>34.92528365300548</v>
+        <v>69.85056730601096</v>
       </c>
       <c r="E9">
-        <v>37.12822450108557</v>
+        <v>74.25644900217114</v>
       </c>
       <c r="F9">
-        <v>37.73395095900902</v>
+        <v>75.46790191801804</v>
       </c>
       <c r="G9">
-        <v>38.582848490342236</v>
+        <v>77.16569698068447</v>
       </c>
       <c r="H9">
-        <v>39.59606566421116</v>
+        <v>79.19213132842232</v>
       </c>
       <c r="I9">
-        <v>40.89166365508143</v>
+        <v>81.78332731016286</v>
       </c>
       <c r="J9">
-        <v>43.58869260345125</v>
+        <v>87.1773852069025</v>
       </c>
       <c r="K9">
-        <v>47.8272916627882</v>
+        <v>95.6545833255764</v>
       </c>
       <c r="L9">
-        <v>55.56079974511501</v>
+        <v>111.12159949023003</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10">
-        <v>40.42103466631787</v>
+        <v>80.84206933263575</v>
       </c>
       <c r="B10">
-        <v>35.99615301691535</v>
+        <v>71.9923060338307</v>
       </c>
       <c r="C10">
-        <v>52.60819176305384</v>
+        <v>105.21638352610768</v>
       </c>
       <c r="D10">
-        <v>34.92528365300548</v>
+        <v>69.85056730601096</v>
       </c>
       <c r="E10">
-        <v>37.12822450108557</v>
+        <v>74.25644900217114</v>
       </c>
       <c r="F10">
-        <v>37.73395095900902</v>
+        <v>75.46790191801804</v>
       </c>
       <c r="G10">
-        <v>38.582848490342236</v>
+        <v>77.16569698068447</v>
       </c>
       <c r="H10">
-        <v>39.59606566421116</v>
+        <v>79.19213132842232</v>
       </c>
       <c r="I10">
-        <v>40.89166365508143</v>
+        <v>81.78332731016286</v>
       </c>
       <c r="J10">
-        <v>43.58869260345125</v>
+        <v>87.1773852069025</v>
       </c>
       <c r="K10">
-        <v>47.8272916627882</v>
+        <v>95.6545833255764</v>
       </c>
       <c r="L10">
-        <v>55.56079974511501</v>
+        <v>111.12159949023003</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11">
-        <v>40.28812386688289</v>
+        <v>80.57624773376578</v>
       </c>
       <c r="B11">
-        <v>35.81957930393158</v>
+        <v>71.63915860786317</v>
       </c>
       <c r="C11">
-        <v>56.745150389162</v>
+        <v>113.490300778324</v>
       </c>
       <c r="D11">
-        <v>35.29937720203235</v>
+        <v>70.5987544040647</v>
       </c>
       <c r="E11">
-        <v>36.58796876183224</v>
+        <v>73.17593752366447</v>
       </c>
       <c r="F11">
-        <v>37.033540120706455</v>
+        <v>74.06708024141291</v>
       </c>
       <c r="G11">
-        <v>37.879939627837125</v>
+        <v>75.75987925567425</v>
       </c>
       <c r="H11">
-        <v>38.89726389096876</v>
+        <v>77.79452778193752</v>
       </c>
       <c r="I11">
-        <v>40.52361075643025</v>
+        <v>81.0472215128605</v>
       </c>
       <c r="J11">
-        <v>44.81561195703399</v>
+        <v>89.63122391406797</v>
       </c>
       <c r="K11">
-        <v>50.97538052418533</v>
+        <v>101.95076104837067</v>
       </c>
       <c r="L11">
-        <v>60.071711886155995</v>
+        <v>120.14342377231199</v>
       </c>
     </row>
   </sheetData>
@@ -1054,382 +1054,382 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>40.75052123786312</v>
+        <v>81.50104247572624</v>
       </c>
       <c r="B2">
-        <v>34.57873198058928</v>
+        <v>69.15746396117856</v>
       </c>
       <c r="C2">
-        <v>46.76513416202099</v>
+        <v>93.53026832404198</v>
       </c>
       <c r="D2">
-        <v>33.032835917420016</v>
+        <v>66.06567183484003</v>
       </c>
       <c r="E2">
-        <v>36.637795893450885</v>
+        <v>73.27559178690177</v>
       </c>
       <c r="F2">
-        <v>37.89708492788279</v>
+        <v>75.79416985576557</v>
       </c>
       <c r="G2">
-        <v>39.521989844830486</v>
+        <v>79.04397968966097</v>
       </c>
       <c r="H2">
-        <v>40.8747887964586</v>
+        <v>81.7495775929172</v>
       </c>
       <c r="I2">
-        <v>42.003670702158146</v>
+        <v>84.00734140431629</v>
       </c>
       <c r="J2">
-        <v>43.110439007058886</v>
+        <v>86.22087801411777</v>
       </c>
       <c r="K2">
-        <v>44.2252549299667</v>
+        <v>88.4505098599334</v>
       </c>
       <c r="L2">
-        <v>48.63190342059283</v>
+        <v>97.26380684118566</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3">
-        <v>40.75052123786312</v>
+        <v>81.50104247572624</v>
       </c>
       <c r="B3">
-        <v>34.57873198058928</v>
+        <v>69.15746396117856</v>
       </c>
       <c r="C3">
-        <v>46.76513416202099</v>
+        <v>93.53026832404198</v>
       </c>
       <c r="D3">
-        <v>33.032835917420016</v>
+        <v>66.06567183484003</v>
       </c>
       <c r="E3">
-        <v>36.637795893450885</v>
+        <v>73.27559178690177</v>
       </c>
       <c r="F3">
-        <v>37.89708492788279</v>
+        <v>75.79416985576557</v>
       </c>
       <c r="G3">
-        <v>39.521989844830486</v>
+        <v>79.04397968966097</v>
       </c>
       <c r="H3">
-        <v>40.8747887964586</v>
+        <v>81.7495775929172</v>
       </c>
       <c r="I3">
-        <v>42.003670702158146</v>
+        <v>84.00734140431629</v>
       </c>
       <c r="J3">
-        <v>43.110439007058886</v>
+        <v>86.22087801411777</v>
       </c>
       <c r="K3">
-        <v>44.2252549299667</v>
+        <v>88.4505098599334</v>
       </c>
       <c r="L3">
-        <v>48.63190342059283</v>
+        <v>97.26380684118566</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4">
-        <v>40.633459796752824</v>
+        <v>81.26691959350565</v>
       </c>
       <c r="B4">
-        <v>35.49283078755161</v>
+        <v>70.98566157510322</v>
       </c>
       <c r="C4">
-        <v>49.06551843706002</v>
+        <v>98.13103687412004</v>
       </c>
       <c r="D4">
-        <v>34.144385553503916</v>
+        <v>68.28877110700783</v>
       </c>
       <c r="E4">
-        <v>37.1662890075525</v>
+        <v>74.332578015105</v>
       </c>
       <c r="F4">
-        <v>37.923441687592415</v>
+        <v>75.84688337518483</v>
       </c>
       <c r="G4">
-        <v>39.22026161042869</v>
+        <v>78.44052322085739</v>
       </c>
       <c r="H4">
-        <v>40.35989938284873</v>
+        <v>80.71979876569746</v>
       </c>
       <c r="I4">
-        <v>41.651883123186195</v>
+        <v>83.30376624637239</v>
       </c>
       <c r="J4">
-        <v>42.980989057784065</v>
+        <v>85.96197811556813</v>
       </c>
       <c r="K4">
-        <v>44.330501068233865</v>
+        <v>88.66100213646773</v>
       </c>
       <c r="L4">
-        <v>51.73753771710576</v>
+        <v>103.47507543421152</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5">
-        <v>40.52431903484315</v>
+        <v>81.0486380696863</v>
       </c>
       <c r="B5">
-        <v>35.805256476948955</v>
+        <v>71.61051295389791</v>
       </c>
       <c r="C5">
-        <v>51.517165599585155</v>
+        <v>103.03433119917031</v>
       </c>
       <c r="D5">
-        <v>34.939547577643346</v>
+        <v>69.87909515528669</v>
       </c>
       <c r="E5">
-        <v>37.18087906813235</v>
+        <v>74.3617581362647</v>
       </c>
       <c r="F5">
-        <v>37.82861817621252</v>
+        <v>75.65723635242504</v>
       </c>
       <c r="G5">
-        <v>38.8698829758227</v>
+        <v>77.7397659516454</v>
       </c>
       <c r="H5">
-        <v>39.91748846067861</v>
+        <v>79.83497692135722</v>
       </c>
       <c r="I5">
-        <v>41.304458312894035</v>
+        <v>82.60891662578807</v>
       </c>
       <c r="J5">
-        <v>43.26350414858873</v>
+        <v>86.52700829717746</v>
       </c>
       <c r="K5">
-        <v>45.81525506201851</v>
+        <v>91.63051012403702</v>
       </c>
       <c r="L5">
-        <v>55.48613598263889</v>
+        <v>110.97227196527778</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6">
-        <v>40.47973793962672</v>
+        <v>80.95947587925345</v>
       </c>
       <c r="B6">
-        <v>35.84776699457662</v>
+        <v>71.69553398915323</v>
       </c>
       <c r="C6">
-        <v>52.6302099994096</v>
+        <v>105.26041999881919</v>
       </c>
       <c r="D6">
-        <v>34.85068334451857</v>
+        <v>69.70136668903714</v>
       </c>
       <c r="E6">
-        <v>37.11947981869121</v>
+        <v>74.23895963738244</v>
       </c>
       <c r="F6">
-        <v>37.69353562824021</v>
+        <v>75.38707125648043</v>
       </c>
       <c r="G6">
-        <v>38.690043236003795</v>
+        <v>77.3800864720076</v>
       </c>
       <c r="H6">
-        <v>39.75081298645583</v>
+        <v>79.50162597291165</v>
       </c>
       <c r="I6">
-        <v>41.15146235556456</v>
+        <v>82.30292471112912</v>
       </c>
       <c r="J6">
-        <v>43.44215405352177</v>
+        <v>86.88430810704354</v>
       </c>
       <c r="K6">
-        <v>46.55261687325676</v>
+        <v>93.10523374651352</v>
       </c>
       <c r="L6">
-        <v>56.747924760746855</v>
+        <v>113.49584952149371</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7">
-        <v>40.47973793962672</v>
+        <v>80.95947587925345</v>
       </c>
       <c r="B7">
-        <v>35.84776699457662</v>
+        <v>71.69553398915323</v>
       </c>
       <c r="C7">
-        <v>52.6302099994096</v>
+        <v>105.26041999881919</v>
       </c>
       <c r="D7">
-        <v>34.85068334451857</v>
+        <v>69.70136668903714</v>
       </c>
       <c r="E7">
-        <v>37.11947981869121</v>
+        <v>74.23895963738244</v>
       </c>
       <c r="F7">
-        <v>37.69353562824021</v>
+        <v>75.38707125648043</v>
       </c>
       <c r="G7">
-        <v>38.690043236003795</v>
+        <v>77.3800864720076</v>
       </c>
       <c r="H7">
-        <v>39.75081298645583</v>
+        <v>79.50162597291165</v>
       </c>
       <c r="I7">
-        <v>41.15146235556456</v>
+        <v>82.30292471112912</v>
       </c>
       <c r="J7">
-        <v>43.44215405352177</v>
+        <v>86.88430810704354</v>
       </c>
       <c r="K7">
-        <v>46.55261687325676</v>
+        <v>93.10523374651352</v>
       </c>
       <c r="L7">
-        <v>56.747924760746855</v>
+        <v>113.49584952149371</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8">
-        <v>40.46850407482058</v>
+        <v>80.93700814964116</v>
       </c>
       <c r="B8">
-        <v>35.851483962017156</v>
+        <v>71.70296792403431</v>
       </c>
       <c r="C8">
-        <v>52.9145606564706</v>
+        <v>105.8291213129412</v>
       </c>
       <c r="D8">
-        <v>34.82829069633037</v>
+        <v>69.65658139266074</v>
       </c>
       <c r="E8">
-        <v>37.10004070595932</v>
+        <v>74.20008141191865</v>
       </c>
       <c r="F8">
-        <v>37.66776414276274</v>
+        <v>75.33552828552548</v>
       </c>
       <c r="G8">
-        <v>38.65153325893208</v>
+        <v>77.30306651786417</v>
       </c>
       <c r="H8">
-        <v>39.69732325998041</v>
+        <v>79.39464651996082</v>
       </c>
       <c r="I8">
-        <v>41.14357576141844</v>
+        <v>82.28715152283688</v>
       </c>
       <c r="J8">
-        <v>43.50107194884111</v>
+        <v>87.00214389768222</v>
       </c>
       <c r="K8">
-        <v>46.67386564486676</v>
+        <v>93.34773128973352</v>
       </c>
       <c r="L8">
-        <v>56.980071801384966</v>
+        <v>113.96014360276993</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
-        <v>40.46467817072898</v>
+        <v>80.92935634145796</v>
       </c>
       <c r="B9">
-        <v>35.85189291576656</v>
+        <v>71.70378583153312</v>
       </c>
       <c r="C9">
-        <v>53.01167632407534</v>
+        <v>106.02335264815068</v>
       </c>
       <c r="D9">
-        <v>34.82066445853928</v>
+        <v>69.64132891707855</v>
       </c>
       <c r="E9">
-        <v>37.09873877357805</v>
+        <v>74.1974775471561</v>
       </c>
       <c r="F9">
-        <v>37.681377291197485</v>
+        <v>75.36275458239497</v>
       </c>
       <c r="G9">
-        <v>38.63324313754997</v>
+        <v>77.26648627509994</v>
       </c>
       <c r="H9">
-        <v>39.67688758010564</v>
+        <v>79.35377516021128</v>
       </c>
       <c r="I9">
-        <v>41.151906455737</v>
+        <v>82.303812911474</v>
       </c>
       <c r="J9">
-        <v>43.52670669340539</v>
+        <v>87.05341338681077</v>
       </c>
       <c r="K9">
-        <v>46.70417121217516</v>
+        <v>93.40834242435032</v>
       </c>
       <c r="L9">
-        <v>57.05913384529899</v>
+        <v>114.11826769059797</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10">
-        <v>40.46467817072898</v>
+        <v>80.92935634145796</v>
       </c>
       <c r="B10">
-        <v>35.85189291576656</v>
+        <v>71.70378583153312</v>
       </c>
       <c r="C10">
-        <v>53.01167632407534</v>
+        <v>106.02335264815068</v>
       </c>
       <c r="D10">
-        <v>34.82066445853928</v>
+        <v>69.64132891707855</v>
       </c>
       <c r="E10">
-        <v>37.09873877357805</v>
+        <v>74.1974775471561</v>
       </c>
       <c r="F10">
-        <v>37.681377291197485</v>
+        <v>75.36275458239497</v>
       </c>
       <c r="G10">
-        <v>38.63324313754997</v>
+        <v>77.26648627509994</v>
       </c>
       <c r="H10">
-        <v>39.67688758010564</v>
+        <v>79.35377516021128</v>
       </c>
       <c r="I10">
-        <v>41.151906455737</v>
+        <v>82.303812911474</v>
       </c>
       <c r="J10">
-        <v>43.52670669340539</v>
+        <v>87.05341338681077</v>
       </c>
       <c r="K10">
-        <v>46.70417121217516</v>
+        <v>93.40834242435032</v>
       </c>
       <c r="L10">
-        <v>57.05913384529899</v>
+        <v>114.11826769059797</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11">
-        <v>40.30833138268572</v>
+        <v>80.61666276537144</v>
       </c>
       <c r="B11">
-        <v>35.719917433467046</v>
+        <v>71.43983486693409</v>
       </c>
       <c r="C11">
-        <v>56.99935092604535</v>
+        <v>113.9987018520907</v>
       </c>
       <c r="D11">
-        <v>35.20400816948988</v>
+        <v>70.40801633897976</v>
       </c>
       <c r="E11">
-        <v>36.491078154182524</v>
+        <v>72.98215630836505</v>
       </c>
       <c r="F11">
-        <v>37.05884579947541</v>
+        <v>74.11769159895081</v>
       </c>
       <c r="G11">
-        <v>37.93133544817841</v>
+        <v>75.86267089635682</v>
       </c>
       <c r="H11">
-        <v>39.015215548140766</v>
+        <v>78.03043109628153</v>
       </c>
       <c r="I11">
-        <v>40.714218118590956</v>
+        <v>81.42843623718191</v>
       </c>
       <c r="J11">
-        <v>44.634011435851384</v>
+        <v>89.26802287170277</v>
       </c>
       <c r="K11">
-        <v>48.71725879274607</v>
+        <v>97.43451758549215</v>
       </c>
       <c r="L11">
-        <v>62.018613754751215</v>
+        <v>124.03722750950243</v>
       </c>
     </row>
   </sheetData>

--- a/March2024/Results/Eolica/Results_Stats.xlsx
+++ b/March2024/Results/Eolica/Results_Stats.xlsx
@@ -1,35 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolinablank/Documents/Paper-EPSR/March2024/Results/Eolica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CB7ECD-063A-2A49-B123-D6B4B133A581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="1260" yWindow="760" windowWidth="28040" windowHeight="17040" activeTab="2" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="x_df" r:id="rId4" sheetId="2"/>
-    <sheet name="q_df" r:id="rId6" sheetId="3"/>
-    <sheet name="q_df_Test" r:id="rId7" sheetId="4"/>
-    <sheet name="Indicator" r:id="rId8" sheetId="5"/>
+    <sheet name="x_df" sheetId="2" r:id="rId2"/>
+    <sheet name="q_df" sheetId="3" r:id="rId3"/>
+    <sheet name="q_df_Test" sheetId="4" r:id="rId4"/>
+    <sheet name="Indicator" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>λ</t>
   </si>
@@ -119,7 +130,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -145,14 +166,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -168,9 +192,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -208,7 +232,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -314,7 +338,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -456,17 +480,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69562124-E01E-1546-80B2-E9A142FC7F37}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -475,14 +499,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351812DB-8D62-E140-B326-EA9CC6EC531D}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,23 +514,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>100.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -514,7 +538,7 @@
         <v>95.62</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -522,7 +546,7 @@
         <v>91.54</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -530,7 +554,7 @@
         <v>89.87</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -538,7 +562,7 @@
         <v>89.87</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -546,7 +570,7 @@
         <v>89.45</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -554,7 +578,7 @@
         <v>89.31</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -562,7 +586,7 @@
         <v>89.31</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -576,14 +600,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:L11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B228625-03CF-F346-BBE7-251833F34ACC}">
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -621,109 +647,109 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>81.32806115941034</v>
+        <v>81.328061159410339</v>
       </c>
       <c r="B2">
-        <v>68.16906006082311</v>
+        <v>68.169060060823114</v>
       </c>
       <c r="C2">
         <v>93.08418562230284</v>
       </c>
       <c r="D2">
-        <v>66.09587381996472</v>
+        <v>66.095873819964723</v>
       </c>
       <c r="E2">
-        <v>72.80822881938934</v>
+        <v>72.808228819389342</v>
       </c>
       <c r="F2">
         <v>76.2387592219754</v>
       </c>
       <c r="G2">
-        <v>79.33900846443436</v>
+        <v>79.339008464434357</v>
       </c>
       <c r="H2">
-        <v>81.5884425010184</v>
+        <v>81.588442501018406</v>
       </c>
       <c r="I2">
         <v>83.66977016908065</v>
       </c>
       <c r="J2">
-        <v>85.8796299311717</v>
+        <v>85.879629931171706</v>
       </c>
       <c r="K2">
-        <v>88.7372758423415</v>
+        <v>88.737275842341504</v>
       </c>
       <c r="L2">
-        <v>94.96300148931759</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>94.963001489317591</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>81.32806115941034</v>
+        <v>81.328061159410339</v>
       </c>
       <c r="B3">
-        <v>68.16906006082311</v>
+        <v>68.169060060823114</v>
       </c>
       <c r="C3">
         <v>93.08418562230284</v>
       </c>
       <c r="D3">
-        <v>66.09587381996472</v>
+        <v>66.095873819964723</v>
       </c>
       <c r="E3">
-        <v>72.80822881938934</v>
+        <v>72.808228819389342</v>
       </c>
       <c r="F3">
         <v>76.2387592219754</v>
       </c>
       <c r="G3">
-        <v>79.33900846443436</v>
+        <v>79.339008464434357</v>
       </c>
       <c r="H3">
-        <v>81.5884425010184</v>
+        <v>81.588442501018406</v>
       </c>
       <c r="I3">
         <v>83.66977016908065</v>
       </c>
       <c r="J3">
-        <v>85.8796299311717</v>
+        <v>85.879629931171706</v>
       </c>
       <c r="K3">
-        <v>88.7372758423415</v>
+        <v>88.737275842341504</v>
       </c>
       <c r="L3">
-        <v>94.96300148931759</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>94.963001489317591</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>81.12903270585905</v>
+        <v>81.129032705859046</v>
       </c>
       <c r="B4">
         <v>70.75697075837374</v>
       </c>
       <c r="C4">
-        <v>97.50691358297048</v>
+        <v>97.506913582970483</v>
       </c>
       <c r="D4">
-        <v>68.48891209132846</v>
+        <v>68.488912091328459</v>
       </c>
       <c r="E4">
-        <v>74.23790680583637</v>
+        <v>74.237906805836374</v>
       </c>
       <c r="F4">
-        <v>76.22362823285486</v>
+        <v>76.223628232854864</v>
       </c>
       <c r="G4">
-        <v>78.58170498802576</v>
+        <v>78.581704988025763</v>
       </c>
       <c r="H4">
-        <v>80.5891506635913</v>
+        <v>80.589150663591298</v>
       </c>
       <c r="I4">
-        <v>82.72178759305898</v>
+        <v>82.721787593058977</v>
       </c>
       <c r="J4">
         <v>85.98505315870068</v>
@@ -735,249 +761,249 @@
         <v>100.27182102287873</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>80.94347103109871</v>
       </c>
       <c r="B5">
-        <v>71.829276931605</v>
+        <v>71.829276931604994</v>
       </c>
       <c r="C5">
         <v>102.38503035006642</v>
       </c>
       <c r="D5">
-        <v>69.52030077151132</v>
+        <v>69.520300771511316</v>
       </c>
       <c r="E5">
-        <v>74.42619110769606</v>
+        <v>74.426191107696056</v>
       </c>
       <c r="F5">
-        <v>75.82460516523784</v>
+        <v>75.824605165237841</v>
       </c>
       <c r="G5">
-        <v>77.75305056872392</v>
+        <v>77.753050568723921</v>
       </c>
       <c r="H5">
         <v>79.65566113831089</v>
       </c>
       <c r="I5">
-        <v>82.10014556251927</v>
+        <v>82.100145562519273</v>
       </c>
       <c r="J5">
-        <v>86.31944650026237</v>
+        <v>86.319446500262373</v>
       </c>
       <c r="K5">
-        <v>93.64084648030692</v>
+        <v>93.640846480306919</v>
       </c>
       <c r="L5">
         <v>106.83139066195696</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>80.86767402779523</v>
+        <v>80.867674027795232</v>
       </c>
       <c r="B6">
-        <v>71.98817797962238</v>
+        <v>71.988177979622378</v>
       </c>
       <c r="C6">
         <v>104.48250937699585</v>
       </c>
       <c r="D6">
-        <v>69.7671725102095</v>
+        <v>69.767172510209505</v>
       </c>
       <c r="E6">
-        <v>74.29771647052735</v>
+        <v>74.297716470527348</v>
       </c>
       <c r="F6">
-        <v>75.54331866455509</v>
+        <v>75.543318664555088</v>
       </c>
       <c r="G6">
-        <v>77.30716204919206</v>
+        <v>77.307162049192058</v>
       </c>
       <c r="H6">
-        <v>79.33603140915714</v>
+        <v>79.336031409157144</v>
       </c>
       <c r="I6">
-        <v>81.8519622095809</v>
+        <v>81.851962209580904</v>
       </c>
       <c r="J6">
-        <v>86.65502053583539</v>
+        <v>86.655020535835391</v>
       </c>
       <c r="K6">
-        <v>94.8700762317627</v>
+        <v>94.870076231762695</v>
       </c>
       <c r="L6">
         <v>109.94115699881455</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>80.86767402779523</v>
+        <v>80.867674027795232</v>
       </c>
       <c r="B7">
-        <v>71.98817797962238</v>
+        <v>71.988177979622378</v>
       </c>
       <c r="C7">
         <v>104.48250937699585</v>
       </c>
       <c r="D7">
-        <v>69.7671725102095</v>
+        <v>69.767172510209505</v>
       </c>
       <c r="E7">
-        <v>74.29771647052735</v>
+        <v>74.297716470527348</v>
       </c>
       <c r="F7">
-        <v>75.54331866455509</v>
+        <v>75.543318664555088</v>
       </c>
       <c r="G7">
-        <v>77.30716204919206</v>
+        <v>77.307162049192058</v>
       </c>
       <c r="H7">
-        <v>79.33603140915714</v>
+        <v>79.336031409157144</v>
       </c>
       <c r="I7">
-        <v>81.8519622095809</v>
+        <v>81.851962209580904</v>
       </c>
       <c r="J7">
-        <v>86.65502053583539</v>
+        <v>86.655020535835391</v>
       </c>
       <c r="K7">
-        <v>94.8700762317627</v>
+        <v>94.870076231762695</v>
       </c>
       <c r="L7">
         <v>109.94115699881455</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>80.84857415410012</v>
       </c>
       <c r="B8">
-        <v>71.99193781700029</v>
+        <v>71.991937817000291</v>
       </c>
       <c r="C8">
         <v>105.02949289048127</v>
       </c>
       <c r="D8">
-        <v>69.82938102535549</v>
+        <v>69.829381025355488</v>
       </c>
       <c r="E8">
-        <v>74.28554278883169</v>
+        <v>74.285542788831691</v>
       </c>
       <c r="F8">
-        <v>75.46301454268121</v>
+        <v>75.463014542681208</v>
       </c>
       <c r="G8">
-        <v>77.20902347059862</v>
+        <v>77.209023470598623</v>
       </c>
       <c r="H8">
-        <v>79.23341471954949</v>
+        <v>79.233414719549486</v>
       </c>
       <c r="I8">
-        <v>81.78197999570114</v>
+        <v>81.781979995701136</v>
       </c>
       <c r="J8">
-        <v>86.97803815234825</v>
+        <v>86.978038152348248</v>
       </c>
       <c r="K8">
-        <v>95.2982122579642</v>
+        <v>95.298212257964195</v>
       </c>
       <c r="L8">
         <v>110.84638671869055</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>80.84206933263575</v>
+        <v>80.842069332635745</v>
       </c>
       <c r="B9">
-        <v>71.9923060338307</v>
+        <v>71.992306033830701</v>
       </c>
       <c r="C9">
         <v>105.21638352610768</v>
       </c>
       <c r="D9">
-        <v>69.85056730601096</v>
+        <v>69.850567306010959</v>
       </c>
       <c r="E9">
-        <v>74.25644900217114</v>
+        <v>74.256449002171138</v>
       </c>
       <c r="F9">
-        <v>75.46790191801804</v>
+        <v>75.467901918018043</v>
       </c>
       <c r="G9">
-        <v>77.16569698068447</v>
+        <v>77.165696980684473</v>
       </c>
       <c r="H9">
         <v>79.19213132842232</v>
       </c>
       <c r="I9">
-        <v>81.78332731016286</v>
+        <v>81.783327310162861</v>
       </c>
       <c r="J9">
         <v>87.1773852069025</v>
       </c>
       <c r="K9">
-        <v>95.6545833255764</v>
+        <v>95.654583325576397</v>
       </c>
       <c r="L9">
         <v>111.12159949023003</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>80.84206933263575</v>
+        <v>80.842069332635745</v>
       </c>
       <c r="B10">
-        <v>71.9923060338307</v>
+        <v>71.992306033830701</v>
       </c>
       <c r="C10">
         <v>105.21638352610768</v>
       </c>
       <c r="D10">
-        <v>69.85056730601096</v>
+        <v>69.850567306010959</v>
       </c>
       <c r="E10">
-        <v>74.25644900217114</v>
+        <v>74.256449002171138</v>
       </c>
       <c r="F10">
-        <v>75.46790191801804</v>
+        <v>75.467901918018043</v>
       </c>
       <c r="G10">
-        <v>77.16569698068447</v>
+        <v>77.165696980684473</v>
       </c>
       <c r="H10">
         <v>79.19213132842232</v>
       </c>
       <c r="I10">
-        <v>81.78332731016286</v>
+        <v>81.783327310162861</v>
       </c>
       <c r="J10">
         <v>87.1773852069025</v>
       </c>
       <c r="K10">
-        <v>95.6545833255764</v>
+        <v>95.654583325576397</v>
       </c>
       <c r="L10">
         <v>111.12159949023003</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>80.57624773376578</v>
+        <v>80.576247733765783</v>
       </c>
       <c r="B11">
-        <v>71.63915860786317</v>
+        <v>71.639158607863166</v>
       </c>
       <c r="C11">
         <v>113.490300778324</v>
       </c>
       <c r="D11">
-        <v>70.5987544040647</v>
+        <v>70.598754404064707</v>
       </c>
       <c r="E11">
-        <v>73.17593752366447</v>
+        <v>73.175937523664473</v>
       </c>
       <c r="F11">
         <v>74.06708024141291</v>
@@ -986,19 +1012,102 @@
         <v>75.75987925567425</v>
       </c>
       <c r="H11">
-        <v>77.79452778193752</v>
+        <v>77.794527781937518</v>
       </c>
       <c r="I11">
-        <v>81.0472215128605</v>
+        <v>81.047221512860503</v>
       </c>
       <c r="J11">
-        <v>89.63122391406797</v>
+        <v>89.631223914067974</v>
       </c>
       <c r="K11">
         <v>101.95076104837067</v>
       </c>
       <c r="L11">
         <v>120.14342377231199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f>(A$11-A2)/A2</f>
+        <v>-9.2442069185804665E-3</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" ref="B13:E13" si="0">(B$11-B2)/B2</f>
+        <v>5.0904303857848332E-2</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.21922214841971913</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0503728800666498E-3</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" ref="H13" si="1">(H$11-H2)/H2</f>
+        <v>-4.6500639095219051E-2</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" ref="K13" si="2">(K$11-K2)/K2</f>
+        <v>0.14890568907597984</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <f>(A$11-A6)/A6</f>
+        <v>-3.6037427505245462E-3</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" ref="B17:E19" si="3">(B$11-B6)/B6</f>
+        <v>-4.8482873376515878E-3</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="3"/>
+        <v>8.6213390691317129E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.5098431017161422E-2</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" ref="H17" si="4">(H$11-H6)/H6</f>
+        <v>-1.9430057186370711E-2</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" ref="K17" si="5">(K$11-K6)/K6</f>
+        <v>7.4635597417569505E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <f>(A$11-A8)/A8</f>
+        <v>-3.3683515533035157E-3</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="3"/>
+        <v>-4.9002599434657739E-3</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="3"/>
+        <v>8.0556495656559812E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.4937028437975411E-2</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" ref="H19" si="6">(H$11-H8)/H8</f>
+        <v>-1.8160102561589436E-2</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" ref="K19" si="7">(K$11-K8)/K8</f>
+        <v>6.9807697676411637E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1007,429 +1116,538 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:L11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9ADA6A-50A2-1F42-8495-F43CD57F594B}">
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>81.50104247572624</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>69.15746396117856</v>
+        <v>81.501042475726237</v>
       </c>
       <c r="C2">
-        <v>93.53026832404198</v>
+        <v>69.157463961178564</v>
       </c>
       <c r="D2">
-        <v>66.06567183484003</v>
+        <v>93.530268324041984</v>
       </c>
       <c r="E2">
-        <v>73.27559178690177</v>
+        <v>66.065671834840032</v>
       </c>
       <c r="F2">
-        <v>75.79416985576557</v>
+        <v>73.275591786901771</v>
       </c>
       <c r="G2">
-        <v>79.04397968966097</v>
+        <v>75.794169855765574</v>
       </c>
       <c r="H2">
-        <v>81.7495775929172</v>
+        <v>79.043979689660972</v>
       </c>
       <c r="I2">
-        <v>84.00734140431629</v>
+        <v>81.749577592917205</v>
       </c>
       <c r="J2">
-        <v>86.22087801411777</v>
+        <v>84.007341404316293</v>
       </c>
       <c r="K2">
-        <v>88.4505098599334</v>
+        <v>86.220878014117773</v>
       </c>
       <c r="L2">
-        <v>97.26380684118566</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>88.450509859933405</v>
+      </c>
+      <c r="M2">
+        <v>97.263806841185655</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>81.50104247572624</v>
+        <v>0.05</v>
       </c>
       <c r="B3">
-        <v>69.15746396117856</v>
+        <v>81.501042475726237</v>
       </c>
       <c r="C3">
-        <v>93.53026832404198</v>
+        <v>69.157463961178564</v>
       </c>
       <c r="D3">
-        <v>66.06567183484003</v>
+        <v>93.530268324041984</v>
       </c>
       <c r="E3">
-        <v>73.27559178690177</v>
+        <v>66.065671834840032</v>
       </c>
       <c r="F3">
-        <v>75.79416985576557</v>
+        <v>73.275591786901771</v>
       </c>
       <c r="G3">
-        <v>79.04397968966097</v>
+        <v>75.794169855765574</v>
       </c>
       <c r="H3">
-        <v>81.7495775929172</v>
+        <v>79.043979689660972</v>
       </c>
       <c r="I3">
-        <v>84.00734140431629</v>
+        <v>81.749577592917205</v>
       </c>
       <c r="J3">
-        <v>86.22087801411777</v>
+        <v>84.007341404316293</v>
       </c>
       <c r="K3">
-        <v>88.4505098599334</v>
+        <v>86.220878014117773</v>
       </c>
       <c r="L3">
-        <v>97.26380684118566</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>88.450509859933405</v>
+      </c>
+      <c r="M3">
+        <v>97.263806841185655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>81.26691959350565</v>
+        <v>0.1</v>
       </c>
       <c r="B4">
-        <v>70.98566157510322</v>
+        <v>81.266919593505648</v>
       </c>
       <c r="C4">
-        <v>98.13103687412004</v>
+        <v>70.985661575103222</v>
       </c>
       <c r="D4">
-        <v>68.28877110700783</v>
+        <v>98.131036874120042</v>
       </c>
       <c r="E4">
+        <v>68.288771107007832</v>
+      </c>
+      <c r="F4">
         <v>74.332578015105</v>
       </c>
-      <c r="F4">
-        <v>75.84688337518483</v>
-      </c>
       <c r="G4">
-        <v>78.44052322085739</v>
+        <v>75.846883375184831</v>
       </c>
       <c r="H4">
-        <v>80.71979876569746</v>
+        <v>78.440523220857386</v>
       </c>
       <c r="I4">
+        <v>80.719798765697462</v>
+      </c>
+      <c r="J4">
         <v>83.30376624637239</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>85.96197811556813</v>
       </c>
-      <c r="K4">
-        <v>88.66100213646773</v>
-      </c>
       <c r="L4">
+        <v>88.661002136467729</v>
+      </c>
+      <c r="M4">
         <v>103.47507543421152</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>81.0486380696863</v>
+        <v>0.25</v>
       </c>
       <c r="B5">
+        <v>81.048638069686305</v>
+      </c>
+      <c r="C5">
         <v>71.61051295389791</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>103.03433119917031</v>
       </c>
-      <c r="D5">
-        <v>69.87909515528669</v>
-      </c>
       <c r="E5">
-        <v>74.3617581362647</v>
+        <v>69.879095155286691</v>
       </c>
       <c r="F5">
-        <v>75.65723635242504</v>
+        <v>74.361758136264697</v>
       </c>
       <c r="G5">
-        <v>77.7397659516454</v>
+        <v>75.657236352425045</v>
       </c>
       <c r="H5">
-        <v>79.83497692135722</v>
+        <v>77.739765951645396</v>
       </c>
       <c r="I5">
-        <v>82.60891662578807</v>
+        <v>79.834976921357224</v>
       </c>
       <c r="J5">
+        <v>82.608916625788069</v>
+      </c>
+      <c r="K5">
         <v>86.52700829717746</v>
       </c>
-      <c r="K5">
-        <v>91.63051012403702</v>
-      </c>
       <c r="L5">
+        <v>91.630510124037016</v>
+      </c>
+      <c r="M5">
         <v>110.97227196527778</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>80.95947587925345</v>
+        <v>0.5</v>
       </c>
       <c r="B6">
-        <v>71.69553398915323</v>
+        <v>80.959475879253446</v>
       </c>
       <c r="C6">
+        <v>71.695533989153233</v>
+      </c>
+      <c r="D6">
         <v>105.26041999881919</v>
       </c>
-      <c r="D6">
-        <v>69.70136668903714</v>
-      </c>
       <c r="E6">
-        <v>74.23895963738244</v>
+        <v>69.701366689037144</v>
       </c>
       <c r="F6">
-        <v>75.38707125648043</v>
+        <v>74.238959637382436</v>
       </c>
       <c r="G6">
-        <v>77.3800864720076</v>
+        <v>75.387071256480425</v>
       </c>
       <c r="H6">
-        <v>79.50162597291165</v>
+        <v>77.380086472007605</v>
       </c>
       <c r="I6">
-        <v>82.30292471112912</v>
+        <v>79.501625972911654</v>
       </c>
       <c r="J6">
-        <v>86.88430810704354</v>
+        <v>82.302924711129123</v>
       </c>
       <c r="K6">
+        <v>86.884308107043537</v>
+      </c>
+      <c r="L6">
         <v>93.10523374651352</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>113.49584952149371</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>80.95947587925345</v>
+        <v>0.75</v>
       </c>
       <c r="B7">
-        <v>71.69553398915323</v>
+        <v>80.959475879253446</v>
       </c>
       <c r="C7">
+        <v>71.695533989153233</v>
+      </c>
+      <c r="D7">
         <v>105.26041999881919</v>
       </c>
-      <c r="D7">
-        <v>69.70136668903714</v>
-      </c>
       <c r="E7">
-        <v>74.23895963738244</v>
+        <v>69.701366689037144</v>
       </c>
       <c r="F7">
-        <v>75.38707125648043</v>
+        <v>74.238959637382436</v>
       </c>
       <c r="G7">
-        <v>77.3800864720076</v>
+        <v>75.387071256480425</v>
       </c>
       <c r="H7">
-        <v>79.50162597291165</v>
+        <v>77.380086472007605</v>
       </c>
       <c r="I7">
-        <v>82.30292471112912</v>
+        <v>79.501625972911654</v>
       </c>
       <c r="J7">
-        <v>86.88430810704354</v>
+        <v>82.302924711129123</v>
       </c>
       <c r="K7">
+        <v>86.884308107043537</v>
+      </c>
+      <c r="L7">
         <v>93.10523374651352</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>113.49584952149371</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>80.93700814964116</v>
+        <v>0.9</v>
       </c>
       <c r="B8">
-        <v>71.70296792403431</v>
+        <v>80.937008149641159</v>
       </c>
       <c r="C8">
+        <v>71.702967924034311</v>
+      </c>
+      <c r="D8">
         <v>105.8291213129412</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>69.65658139266074</v>
       </c>
-      <c r="E8">
-        <v>74.20008141191865</v>
-      </c>
       <c r="F8">
-        <v>75.33552828552548</v>
+        <v>74.200081411918646</v>
       </c>
       <c r="G8">
-        <v>77.30306651786417</v>
+        <v>75.335528285525484</v>
       </c>
       <c r="H8">
-        <v>79.39464651996082</v>
+        <v>77.303066517864167</v>
       </c>
       <c r="I8">
-        <v>82.28715152283688</v>
+        <v>79.394646519960816</v>
       </c>
       <c r="J8">
-        <v>87.00214389768222</v>
+        <v>82.287151522836879</v>
       </c>
       <c r="K8">
-        <v>93.34773128973352</v>
+        <v>87.002143897682217</v>
       </c>
       <c r="L8">
+        <v>93.347731289733517</v>
+      </c>
+      <c r="M8">
         <v>113.96014360276993</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
-        <v>80.92935634145796</v>
-      </c>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9">
-        <v>71.70378583153312</v>
+        <v>80.929356341457961</v>
       </c>
       <c r="C9">
+        <v>71.703785831533125</v>
+      </c>
+      <c r="D9">
         <v>106.02335264815068</v>
       </c>
-      <c r="D9">
-        <v>69.64132891707855</v>
-      </c>
       <c r="E9">
-        <v>74.1974775471561</v>
+        <v>69.641328917078553</v>
       </c>
       <c r="F9">
+        <v>74.197477547156097</v>
+      </c>
+      <c r="G9">
         <v>75.36275458239497</v>
       </c>
-      <c r="G9">
-        <v>77.26648627509994</v>
-      </c>
       <c r="H9">
-        <v>79.35377516021128</v>
+        <v>77.266486275099936</v>
       </c>
       <c r="I9">
-        <v>82.303812911474</v>
+        <v>79.353775160211285</v>
       </c>
       <c r="J9">
-        <v>87.05341338681077</v>
+        <v>82.303812911473997</v>
       </c>
       <c r="K9">
-        <v>93.40834242435032</v>
+        <v>87.053413386810774</v>
       </c>
       <c r="L9">
+        <v>93.408342424350323</v>
+      </c>
+      <c r="M9">
         <v>114.11826769059797</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
-        <v>80.92935634145796</v>
-      </c>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10">
-        <v>71.70378583153312</v>
+        <v>80.929356341457961</v>
       </c>
       <c r="C10">
+        <v>71.703785831533125</v>
+      </c>
+      <c r="D10">
         <v>106.02335264815068</v>
       </c>
-      <c r="D10">
-        <v>69.64132891707855</v>
-      </c>
       <c r="E10">
-        <v>74.1974775471561</v>
+        <v>69.641328917078553</v>
       </c>
       <c r="F10">
+        <v>74.197477547156097</v>
+      </c>
+      <c r="G10">
         <v>75.36275458239497</v>
       </c>
-      <c r="G10">
-        <v>77.26648627509994</v>
-      </c>
       <c r="H10">
-        <v>79.35377516021128</v>
+        <v>77.266486275099936</v>
       </c>
       <c r="I10">
-        <v>82.303812911474</v>
+        <v>79.353775160211285</v>
       </c>
       <c r="J10">
-        <v>87.05341338681077</v>
+        <v>82.303812911473997</v>
       </c>
       <c r="K10">
-        <v>93.40834242435032</v>
+        <v>87.053413386810774</v>
       </c>
       <c r="L10">
+        <v>93.408342424350323</v>
+      </c>
+      <c r="M10">
         <v>114.11826769059797</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11">
-        <v>80.61666276537144</v>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>71.43983486693409</v>
+        <v>80.616662765371444</v>
       </c>
       <c r="C11">
+        <v>71.439834866934092</v>
+      </c>
+      <c r="D11">
         <v>113.9987018520907</v>
       </c>
-      <c r="D11">
-        <v>70.40801633897976</v>
-      </c>
       <c r="E11">
-        <v>72.98215630836505</v>
+        <v>70.408016338979763</v>
       </c>
       <c r="F11">
-        <v>74.11769159895081</v>
+        <v>72.982156308365049</v>
       </c>
       <c r="G11">
-        <v>75.86267089635682</v>
+        <v>74.117691598950813</v>
       </c>
       <c r="H11">
-        <v>78.03043109628153</v>
+        <v>75.862670896356818</v>
       </c>
       <c r="I11">
-        <v>81.42843623718191</v>
+        <v>78.030431096281532</v>
       </c>
       <c r="J11">
-        <v>89.26802287170277</v>
+        <v>81.428436237181913</v>
       </c>
       <c r="K11">
-        <v>97.43451758549215</v>
+        <v>89.268022871702769</v>
       </c>
       <c r="L11">
+        <v>97.434517585492145</v>
+      </c>
+      <c r="M11">
         <v>124.03722750950243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <f>(B$11-B2)/B2</f>
+        <v>-1.0851145991392575E-2</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" ref="C13:F13" si="0">(C$11-C2)/C2</f>
+        <v>3.3002524601491071E-2</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.21884288257502307</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.0045460074902371E-3</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" ref="I13" si="1">(I$11-I2)/I2</f>
+        <v>-4.5494381819997327E-2</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" ref="L13" si="2">(L$11-L2)/L2</f>
+        <v>0.10157101117659408</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <f>(B$11-B6)/B6</f>
+        <v>-4.2343791157107881E-3</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" ref="C17:F19" si="3">(C$11-C6)/C6</f>
+        <v>-3.5664581598321859E-3</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="3"/>
+        <v>8.3015836848927091E-2</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.692916138852428E-2</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" ref="I17" si="4">(I$11-I6)/I6</f>
+        <v>-1.8505217454689513E-2</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" ref="L17" si="5">(L$11-L6)/L6</f>
+        <v>4.6498823586711015E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <f>(B$11-B8)/B8</f>
+        <v>-3.9579593018491711E-3</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="3"/>
+        <v>-3.6697652094261389E-3</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="3"/>
+        <v>7.7195959276574841E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.6414066944109358E-2</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" ref="I19" si="6">(I$11-I8)/I8</f>
+        <v>-1.7182712984764061E-2</v>
+      </c>
+      <c r="L19" s="1">
+        <f t="shared" ref="L19" si="7">(L$11-L8)/L8</f>
+        <v>4.3780242318627163E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1438,14 +1656,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4808D46-EE3C-A142-B9AB-C1A96E1121DE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1453,7 +1671,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1461,7 +1679,7 @@
         <v>-25.81</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>

--- a/March2024/Results/Eolica/Results_Stats.xlsx
+++ b/March2024/Results/Eolica/Results_Stats.xlsx
@@ -1,46 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carolinablank/Documents/Paper-EPSR/March2024/Results/Eolica/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felipenoris/tmp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CB7ECD-063A-2A49-B123-D6B4B133A581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C353BCB8-5EC8-0143-BDD3-A1B661DAACD7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="760" windowWidth="28040" windowHeight="17040" activeTab="2" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{52D9C27D-0EF6-DD41-9728-0267E68F7539}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="x_df" sheetId="2" r:id="rId2"/>
-    <sheet name="q_df" sheetId="3" r:id="rId3"/>
-    <sheet name="q_df_Test" sheetId="4" r:id="rId4"/>
-    <sheet name="Indicator" sheetId="5" r:id="rId5"/>
+    <sheet name="x_df" r:id="rId4" sheetId="2"/>
+    <sheet name="q_df" r:id="rId6" sheetId="3"/>
+    <sheet name="q_df_Test" r:id="rId7" sheetId="4"/>
+    <sheet name="Indicator" r:id="rId8" sheetId="5"/>
+    <sheet name="Differences" r:id="rId9" sheetId="6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>λ</t>
   </si>
@@ -124,23 +114,16 @@
   </si>
   <si>
     <t>Out of Sample</t>
+  </si>
+  <si>
+    <t>CVaU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -166,17 +149,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -192,9 +172,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -232,7 +212,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -338,7 +318,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -480,17 +460,17 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69562124-E01E-1546-80B2-E9A142FC7F37}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
@@ -499,14 +479,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351812DB-8D62-E140-B326-EA9CC6EC531D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,23 +494,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -538,7 +518,7 @@
         <v>95.62</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -546,7 +526,7 @@
         <v>91.54</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -554,7 +534,7 @@
         <v>89.87</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -562,7 +542,7 @@
         <v>89.87</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -570,7 +550,7 @@
         <v>89.45</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -578,7 +558,7 @@
         <v>89.31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -586,7 +566,7 @@
         <v>89.31</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -600,16 +580,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B228625-03CF-F346-BBE7-251833F34ACC}">
-  <dimension ref="A1:L19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
-    </sheetView>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -647,109 +625,109 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2">
-        <v>81.328061159410339</v>
+        <v>81.32806115941034</v>
       </c>
       <c r="B2">
-        <v>68.169060060823114</v>
+        <v>68.16906006082311</v>
       </c>
       <c r="C2">
         <v>93.08418562230284</v>
       </c>
       <c r="D2">
-        <v>66.095873819964723</v>
+        <v>66.09587381996472</v>
       </c>
       <c r="E2">
-        <v>72.808228819389342</v>
+        <v>72.80822881938934</v>
       </c>
       <c r="F2">
         <v>76.2387592219754</v>
       </c>
       <c r="G2">
-        <v>79.339008464434357</v>
+        <v>79.33900846443436</v>
       </c>
       <c r="H2">
-        <v>81.588442501018406</v>
+        <v>81.5884425010184</v>
       </c>
       <c r="I2">
         <v>83.66977016908065</v>
       </c>
       <c r="J2">
-        <v>85.879629931171706</v>
+        <v>85.8796299311717</v>
       </c>
       <c r="K2">
-        <v>88.737275842341504</v>
+        <v>88.7372758423415</v>
       </c>
       <c r="L2">
-        <v>94.963001489317591</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>94.96300148931759</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
-        <v>81.328061159410339</v>
+        <v>81.32806115941034</v>
       </c>
       <c r="B3">
-        <v>68.169060060823114</v>
+        <v>68.16906006082311</v>
       </c>
       <c r="C3">
         <v>93.08418562230284</v>
       </c>
       <c r="D3">
-        <v>66.095873819964723</v>
+        <v>66.09587381996472</v>
       </c>
       <c r="E3">
-        <v>72.808228819389342</v>
+        <v>72.80822881938934</v>
       </c>
       <c r="F3">
         <v>76.2387592219754</v>
       </c>
       <c r="G3">
-        <v>79.339008464434357</v>
+        <v>79.33900846443436</v>
       </c>
       <c r="H3">
-        <v>81.588442501018406</v>
+        <v>81.5884425010184</v>
       </c>
       <c r="I3">
         <v>83.66977016908065</v>
       </c>
       <c r="J3">
-        <v>85.879629931171706</v>
+        <v>85.8796299311717</v>
       </c>
       <c r="K3">
-        <v>88.737275842341504</v>
+        <v>88.7372758423415</v>
       </c>
       <c r="L3">
-        <v>94.963001489317591</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>94.96300148931759</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
-        <v>81.129032705859046</v>
+        <v>81.12903270585905</v>
       </c>
       <c r="B4">
         <v>70.75697075837374</v>
       </c>
       <c r="C4">
-        <v>97.506913582970483</v>
+        <v>97.50691358297048</v>
       </c>
       <c r="D4">
-        <v>68.488912091328459</v>
+        <v>68.48891209132846</v>
       </c>
       <c r="E4">
-        <v>74.237906805836374</v>
+        <v>74.23790680583637</v>
       </c>
       <c r="F4">
-        <v>76.223628232854864</v>
+        <v>76.22362823285486</v>
       </c>
       <c r="G4">
-        <v>78.581704988025763</v>
+        <v>78.58170498802576</v>
       </c>
       <c r="H4">
-        <v>80.589150663591298</v>
+        <v>80.5891506635913</v>
       </c>
       <c r="I4">
-        <v>82.721787593058977</v>
+        <v>82.72178759305898</v>
       </c>
       <c r="J4">
         <v>85.98505315870068</v>
@@ -761,249 +739,249 @@
         <v>100.27182102287873</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>80.94347103109871</v>
       </c>
       <c r="B5">
-        <v>71.829276931604994</v>
+        <v>71.829276931605</v>
       </c>
       <c r="C5">
         <v>102.38503035006642</v>
       </c>
       <c r="D5">
-        <v>69.520300771511316</v>
+        <v>69.52030077151132</v>
       </c>
       <c r="E5">
-        <v>74.426191107696056</v>
+        <v>74.42619110769606</v>
       </c>
       <c r="F5">
-        <v>75.824605165237841</v>
+        <v>75.82460516523784</v>
       </c>
       <c r="G5">
-        <v>77.753050568723921</v>
+        <v>77.75305056872392</v>
       </c>
       <c r="H5">
         <v>79.65566113831089</v>
       </c>
       <c r="I5">
-        <v>82.100145562519273</v>
+        <v>82.10014556251927</v>
       </c>
       <c r="J5">
-        <v>86.319446500262373</v>
+        <v>86.31944650026237</v>
       </c>
       <c r="K5">
-        <v>93.640846480306919</v>
+        <v>93.64084648030692</v>
       </c>
       <c r="L5">
         <v>106.83139066195696</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6">
-        <v>80.867674027795232</v>
+        <v>80.86767402779523</v>
       </c>
       <c r="B6">
-        <v>71.988177979622378</v>
+        <v>71.98817797962238</v>
       </c>
       <c r="C6">
         <v>104.48250937699585</v>
       </c>
       <c r="D6">
-        <v>69.767172510209505</v>
+        <v>69.7671725102095</v>
       </c>
       <c r="E6">
-        <v>74.297716470527348</v>
+        <v>74.29771647052735</v>
       </c>
       <c r="F6">
-        <v>75.543318664555088</v>
+        <v>75.54331866455509</v>
       </c>
       <c r="G6">
-        <v>77.307162049192058</v>
+        <v>77.30716204919206</v>
       </c>
       <c r="H6">
-        <v>79.336031409157144</v>
+        <v>79.33603140915714</v>
       </c>
       <c r="I6">
-        <v>81.851962209580904</v>
+        <v>81.8519622095809</v>
       </c>
       <c r="J6">
-        <v>86.655020535835391</v>
+        <v>86.65502053583539</v>
       </c>
       <c r="K6">
-        <v>94.870076231762695</v>
+        <v>94.8700762317627</v>
       </c>
       <c r="L6">
         <v>109.94115699881455</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7">
-        <v>80.867674027795232</v>
+        <v>80.86767402779523</v>
       </c>
       <c r="B7">
-        <v>71.988177979622378</v>
+        <v>71.98817797962238</v>
       </c>
       <c r="C7">
         <v>104.48250937699585</v>
       </c>
       <c r="D7">
-        <v>69.767172510209505</v>
+        <v>69.7671725102095</v>
       </c>
       <c r="E7">
-        <v>74.297716470527348</v>
+        <v>74.29771647052735</v>
       </c>
       <c r="F7">
-        <v>75.543318664555088</v>
+        <v>75.54331866455509</v>
       </c>
       <c r="G7">
-        <v>77.307162049192058</v>
+        <v>77.30716204919206</v>
       </c>
       <c r="H7">
-        <v>79.336031409157144</v>
+        <v>79.33603140915714</v>
       </c>
       <c r="I7">
-        <v>81.851962209580904</v>
+        <v>81.8519622095809</v>
       </c>
       <c r="J7">
-        <v>86.655020535835391</v>
+        <v>86.65502053583539</v>
       </c>
       <c r="K7">
-        <v>94.870076231762695</v>
+        <v>94.8700762317627</v>
       </c>
       <c r="L7">
         <v>109.94115699881455</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>80.84857415410012</v>
       </c>
       <c r="B8">
-        <v>71.991937817000291</v>
+        <v>71.99193781700029</v>
       </c>
       <c r="C8">
         <v>105.02949289048127</v>
       </c>
       <c r="D8">
-        <v>69.829381025355488</v>
+        <v>69.82938102535549</v>
       </c>
       <c r="E8">
-        <v>74.285542788831691</v>
+        <v>74.28554278883169</v>
       </c>
       <c r="F8">
-        <v>75.463014542681208</v>
+        <v>75.46301454268121</v>
       </c>
       <c r="G8">
-        <v>77.209023470598623</v>
+        <v>77.20902347059862</v>
       </c>
       <c r="H8">
-        <v>79.233414719549486</v>
+        <v>79.23341471954949</v>
       </c>
       <c r="I8">
-        <v>81.781979995701136</v>
+        <v>81.78197999570114</v>
       </c>
       <c r="J8">
-        <v>86.978038152348248</v>
+        <v>86.97803815234825</v>
       </c>
       <c r="K8">
-        <v>95.298212257964195</v>
+        <v>95.2982122579642</v>
       </c>
       <c r="L8">
         <v>110.84638671869055</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9">
-        <v>80.842069332635745</v>
+        <v>80.84206933263575</v>
       </c>
       <c r="B9">
-        <v>71.992306033830701</v>
+        <v>71.9923060338307</v>
       </c>
       <c r="C9">
         <v>105.21638352610768</v>
       </c>
       <c r="D9">
-        <v>69.850567306010959</v>
+        <v>69.85056730601096</v>
       </c>
       <c r="E9">
-        <v>74.256449002171138</v>
+        <v>74.25644900217114</v>
       </c>
       <c r="F9">
-        <v>75.467901918018043</v>
+        <v>75.46790191801804</v>
       </c>
       <c r="G9">
-        <v>77.165696980684473</v>
+        <v>77.16569698068447</v>
       </c>
       <c r="H9">
         <v>79.19213132842232</v>
       </c>
       <c r="I9">
-        <v>81.783327310162861</v>
+        <v>81.78332731016286</v>
       </c>
       <c r="J9">
         <v>87.1773852069025</v>
       </c>
       <c r="K9">
-        <v>95.654583325576397</v>
+        <v>95.6545833255764</v>
       </c>
       <c r="L9">
         <v>111.12159949023003</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10">
-        <v>80.842069332635745</v>
+        <v>80.84206933263575</v>
       </c>
       <c r="B10">
-        <v>71.992306033830701</v>
+        <v>71.9923060338307</v>
       </c>
       <c r="C10">
         <v>105.21638352610768</v>
       </c>
       <c r="D10">
-        <v>69.850567306010959</v>
+        <v>69.85056730601096</v>
       </c>
       <c r="E10">
-        <v>74.256449002171138</v>
+        <v>74.25644900217114</v>
       </c>
       <c r="F10">
-        <v>75.467901918018043</v>
+        <v>75.46790191801804</v>
       </c>
       <c r="G10">
-        <v>77.165696980684473</v>
+        <v>77.16569698068447</v>
       </c>
       <c r="H10">
         <v>79.19213132842232</v>
       </c>
       <c r="I10">
-        <v>81.783327310162861</v>
+        <v>81.78332731016286</v>
       </c>
       <c r="J10">
         <v>87.1773852069025</v>
       </c>
       <c r="K10">
-        <v>95.654583325576397</v>
+        <v>95.6545833255764</v>
       </c>
       <c r="L10">
         <v>111.12159949023003</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11">
-        <v>80.576247733765783</v>
+        <v>80.57624773376578</v>
       </c>
       <c r="B11">
-        <v>71.639158607863166</v>
+        <v>71.63915860786317</v>
       </c>
       <c r="C11">
         <v>113.490300778324</v>
       </c>
       <c r="D11">
-        <v>70.598754404064707</v>
+        <v>70.5987544040647</v>
       </c>
       <c r="E11">
-        <v>73.175937523664473</v>
+        <v>73.17593752366447</v>
       </c>
       <c r="F11">
         <v>74.06708024141291</v>
@@ -1012,102 +990,19 @@
         <v>75.75987925567425</v>
       </c>
       <c r="H11">
-        <v>77.794527781937518</v>
+        <v>77.79452778193752</v>
       </c>
       <c r="I11">
-        <v>81.047221512860503</v>
+        <v>81.0472215128605</v>
       </c>
       <c r="J11">
-        <v>89.631223914067974</v>
+        <v>89.63122391406797</v>
       </c>
       <c r="K11">
         <v>101.95076104837067</v>
       </c>
       <c r="L11">
         <v>120.14342377231199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <f>(A$11-A2)/A2</f>
-        <v>-9.2442069185804665E-3</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" ref="B13:E13" si="0">(B$11-B2)/B2</f>
-        <v>5.0904303857848332E-2</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="0"/>
-        <v>0.21922214841971913</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>5.0503728800666498E-3</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" ref="H13" si="1">(H$11-H2)/H2</f>
-        <v>-4.6500639095219051E-2</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" ref="K13" si="2">(K$11-K2)/K2</f>
-        <v>0.14890568907597984</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <f>(A$11-A6)/A6</f>
-        <v>-3.6037427505245462E-3</v>
-      </c>
-      <c r="B17" s="1">
-        <f t="shared" ref="B17:E19" si="3">(B$11-B6)/B6</f>
-        <v>-4.8482873376515878E-3</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" si="3"/>
-        <v>8.6213390691317129E-2</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.5098431017161422E-2</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" ref="H17" si="4">(H$11-H6)/H6</f>
-        <v>-1.9430057186370711E-2</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" ref="K17" si="5">(K$11-K6)/K6</f>
-        <v>7.4635597417569505E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <f>(A$11-A8)/A8</f>
-        <v>-3.3683515533035157E-3</v>
-      </c>
-      <c r="B19" s="1">
-        <f t="shared" si="3"/>
-        <v>-4.9002599434657739E-3</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" si="3"/>
-        <v>8.0556495656559812E-2</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.4937028437975411E-2</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" ref="H19" si="6">(H$11-H8)/H8</f>
-        <v>-1.8160102561589436E-2</v>
-      </c>
-      <c r="K19" s="1">
-        <f t="shared" ref="K19" si="7">(K$11-K8)/K8</f>
-        <v>6.9807697676411637E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1116,538 +1011,429 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B9ADA6A-50A2-1F42-8495-F43CD57F594B}">
-  <dimension ref="A1:M19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2">
-        <v>0</v>
+        <v>81.50104247572624</v>
       </c>
       <c r="B2">
-        <v>81.501042475726237</v>
+        <v>69.15746396117856</v>
       </c>
       <c r="C2">
-        <v>69.157463961178564</v>
+        <v>93.53026832404198</v>
       </c>
       <c r="D2">
-        <v>93.530268324041984</v>
+        <v>66.06567183484003</v>
       </c>
       <c r="E2">
-        <v>66.065671834840032</v>
+        <v>73.27559178690177</v>
       </c>
       <c r="F2">
-        <v>73.275591786901771</v>
+        <v>75.79416985576557</v>
       </c>
       <c r="G2">
-        <v>75.794169855765574</v>
+        <v>79.04397968966097</v>
       </c>
       <c r="H2">
-        <v>79.043979689660972</v>
+        <v>81.7495775929172</v>
       </c>
       <c r="I2">
-        <v>81.749577592917205</v>
+        <v>84.00734140431629</v>
       </c>
       <c r="J2">
-        <v>84.007341404316293</v>
+        <v>86.22087801411777</v>
       </c>
       <c r="K2">
-        <v>86.220878014117773</v>
+        <v>88.4505098599334</v>
       </c>
       <c r="L2">
-        <v>88.450509859933405</v>
-      </c>
-      <c r="M2">
-        <v>97.263806841185655</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>97.26380684118566</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
-        <v>0.05</v>
+        <v>81.50104247572624</v>
       </c>
       <c r="B3">
-        <v>81.501042475726237</v>
+        <v>69.15746396117856</v>
       </c>
       <c r="C3">
-        <v>69.157463961178564</v>
+        <v>93.53026832404198</v>
       </c>
       <c r="D3">
-        <v>93.530268324041984</v>
+        <v>66.06567183484003</v>
       </c>
       <c r="E3">
-        <v>66.065671834840032</v>
+        <v>73.27559178690177</v>
       </c>
       <c r="F3">
-        <v>73.275591786901771</v>
+        <v>75.79416985576557</v>
       </c>
       <c r="G3">
-        <v>75.794169855765574</v>
+        <v>79.04397968966097</v>
       </c>
       <c r="H3">
-        <v>79.043979689660972</v>
+        <v>81.7495775929172</v>
       </c>
       <c r="I3">
-        <v>81.749577592917205</v>
+        <v>84.00734140431629</v>
       </c>
       <c r="J3">
-        <v>84.007341404316293</v>
+        <v>86.22087801411777</v>
       </c>
       <c r="K3">
-        <v>86.220878014117773</v>
+        <v>88.4505098599334</v>
       </c>
       <c r="L3">
-        <v>88.450509859933405</v>
-      </c>
-      <c r="M3">
-        <v>97.263806841185655</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>97.26380684118566</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
-        <v>0.1</v>
+        <v>81.26691959350565</v>
       </c>
       <c r="B4">
-        <v>81.266919593505648</v>
+        <v>70.98566157510322</v>
       </c>
       <c r="C4">
-        <v>70.985661575103222</v>
+        <v>98.13103687412004</v>
       </c>
       <c r="D4">
-        <v>98.131036874120042</v>
+        <v>68.28877110700783</v>
       </c>
       <c r="E4">
-        <v>68.288771107007832</v>
+        <v>74.332578015105</v>
       </c>
       <c r="F4">
-        <v>74.332578015105</v>
+        <v>75.84688337518483</v>
       </c>
       <c r="G4">
-        <v>75.846883375184831</v>
+        <v>78.44052322085739</v>
       </c>
       <c r="H4">
-        <v>78.440523220857386</v>
+        <v>80.71979876569746</v>
       </c>
       <c r="I4">
-        <v>80.719798765697462</v>
+        <v>83.30376624637239</v>
       </c>
       <c r="J4">
-        <v>83.30376624637239</v>
+        <v>85.96197811556813</v>
       </c>
       <c r="K4">
-        <v>85.96197811556813</v>
+        <v>88.66100213646773</v>
       </c>
       <c r="L4">
-        <v>88.661002136467729</v>
-      </c>
-      <c r="M4">
         <v>103.47507543421152</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5">
-        <v>0.25</v>
+        <v>81.0486380696863</v>
       </c>
       <c r="B5">
-        <v>81.048638069686305</v>
+        <v>71.61051295389791</v>
       </c>
       <c r="C5">
-        <v>71.61051295389791</v>
+        <v>103.03433119917031</v>
       </c>
       <c r="D5">
-        <v>103.03433119917031</v>
+        <v>69.87909515528669</v>
       </c>
       <c r="E5">
-        <v>69.879095155286691</v>
+        <v>74.3617581362647</v>
       </c>
       <c r="F5">
-        <v>74.361758136264697</v>
+        <v>75.65723635242504</v>
       </c>
       <c r="G5">
-        <v>75.657236352425045</v>
+        <v>77.7397659516454</v>
       </c>
       <c r="H5">
-        <v>77.739765951645396</v>
+        <v>79.83497692135722</v>
       </c>
       <c r="I5">
-        <v>79.834976921357224</v>
+        <v>82.60891662578807</v>
       </c>
       <c r="J5">
-        <v>82.608916625788069</v>
+        <v>86.52700829717746</v>
       </c>
       <c r="K5">
-        <v>86.52700829717746</v>
+        <v>91.63051012403702</v>
       </c>
       <c r="L5">
-        <v>91.630510124037016</v>
-      </c>
-      <c r="M5">
         <v>110.97227196527778</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6">
-        <v>0.5</v>
+        <v>80.95947587925345</v>
       </c>
       <c r="B6">
-        <v>80.959475879253446</v>
+        <v>71.69553398915323</v>
       </c>
       <c r="C6">
-        <v>71.695533989153233</v>
+        <v>105.26041999881919</v>
       </c>
       <c r="D6">
+        <v>69.70136668903714</v>
+      </c>
+      <c r="E6">
+        <v>74.23895963738244</v>
+      </c>
+      <c r="F6">
+        <v>75.38707125648043</v>
+      </c>
+      <c r="G6">
+        <v>77.3800864720076</v>
+      </c>
+      <c r="H6">
+        <v>79.50162597291165</v>
+      </c>
+      <c r="I6">
+        <v>82.30292471112912</v>
+      </c>
+      <c r="J6">
+        <v>86.88430810704354</v>
+      </c>
+      <c r="K6">
+        <v>93.10523374651352</v>
+      </c>
+      <c r="L6">
+        <v>113.49584952149371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
+        <v>80.95947587925345</v>
+      </c>
+      <c r="B7">
+        <v>71.69553398915323</v>
+      </c>
+      <c r="C7">
         <v>105.26041999881919</v>
       </c>
-      <c r="E6">
-        <v>69.701366689037144</v>
-      </c>
-      <c r="F6">
-        <v>74.238959637382436</v>
-      </c>
-      <c r="G6">
-        <v>75.387071256480425</v>
-      </c>
-      <c r="H6">
-        <v>77.380086472007605</v>
-      </c>
-      <c r="I6">
-        <v>79.501625972911654</v>
-      </c>
-      <c r="J6">
-        <v>82.302924711129123</v>
-      </c>
-      <c r="K6">
-        <v>86.884308107043537</v>
-      </c>
-      <c r="L6">
+      <c r="D7">
+        <v>69.70136668903714</v>
+      </c>
+      <c r="E7">
+        <v>74.23895963738244</v>
+      </c>
+      <c r="F7">
+        <v>75.38707125648043</v>
+      </c>
+      <c r="G7">
+        <v>77.3800864720076</v>
+      </c>
+      <c r="H7">
+        <v>79.50162597291165</v>
+      </c>
+      <c r="I7">
+        <v>82.30292471112912</v>
+      </c>
+      <c r="J7">
+        <v>86.88430810704354</v>
+      </c>
+      <c r="K7">
         <v>93.10523374651352</v>
       </c>
-      <c r="M6">
+      <c r="L7">
         <v>113.49584952149371</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>0.75</v>
-      </c>
-      <c r="B7">
-        <v>80.959475879253446</v>
-      </c>
-      <c r="C7">
-        <v>71.695533989153233</v>
-      </c>
-      <c r="D7">
-        <v>105.26041999881919</v>
-      </c>
-      <c r="E7">
-        <v>69.701366689037144</v>
-      </c>
-      <c r="F7">
-        <v>74.238959637382436</v>
-      </c>
-      <c r="G7">
-        <v>75.387071256480425</v>
-      </c>
-      <c r="H7">
-        <v>77.380086472007605</v>
-      </c>
-      <c r="I7">
-        <v>79.501625972911654</v>
-      </c>
-      <c r="J7">
-        <v>82.302924711129123</v>
-      </c>
-      <c r="K7">
-        <v>86.884308107043537</v>
-      </c>
-      <c r="L7">
-        <v>93.10523374651352</v>
-      </c>
-      <c r="M7">
-        <v>113.49584952149371</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8">
-        <v>0.9</v>
+        <v>80.93700814964116</v>
       </c>
       <c r="B8">
-        <v>80.937008149641159</v>
+        <v>71.70296792403431</v>
       </c>
       <c r="C8">
-        <v>71.702967924034311</v>
+        <v>105.8291213129412</v>
       </c>
       <c r="D8">
-        <v>105.8291213129412</v>
+        <v>69.65658139266074</v>
       </c>
       <c r="E8">
-        <v>69.65658139266074</v>
+        <v>74.20008141191865</v>
       </c>
       <c r="F8">
-        <v>74.200081411918646</v>
+        <v>75.33552828552548</v>
       </c>
       <c r="G8">
-        <v>75.335528285525484</v>
+        <v>77.30306651786417</v>
       </c>
       <c r="H8">
-        <v>77.303066517864167</v>
+        <v>79.39464651996082</v>
       </c>
       <c r="I8">
-        <v>79.394646519960816</v>
+        <v>82.28715152283688</v>
       </c>
       <c r="J8">
-        <v>82.287151522836879</v>
+        <v>87.00214389768222</v>
       </c>
       <c r="K8">
-        <v>87.002143897682217</v>
+        <v>93.34773128973352</v>
       </c>
       <c r="L8">
-        <v>93.347731289733517</v>
-      </c>
-      <c r="M8">
         <v>113.96014360276993</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
+      <c r="A9">
+        <v>80.92935634145796</v>
+      </c>
       <c r="B9">
-        <v>80.929356341457961</v>
+        <v>71.70378583153312</v>
       </c>
       <c r="C9">
-        <v>71.703785831533125</v>
+        <v>106.02335264815068</v>
       </c>
       <c r="D9">
+        <v>69.64132891707855</v>
+      </c>
+      <c r="E9">
+        <v>74.1974775471561</v>
+      </c>
+      <c r="F9">
+        <v>75.36275458239497</v>
+      </c>
+      <c r="G9">
+        <v>77.26648627509994</v>
+      </c>
+      <c r="H9">
+        <v>79.35377516021128</v>
+      </c>
+      <c r="I9">
+        <v>82.303812911474</v>
+      </c>
+      <c r="J9">
+        <v>87.05341338681077</v>
+      </c>
+      <c r="K9">
+        <v>93.40834242435032</v>
+      </c>
+      <c r="L9">
+        <v>114.11826769059797</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
+        <v>80.92935634145796</v>
+      </c>
+      <c r="B10">
+        <v>71.70378583153312</v>
+      </c>
+      <c r="C10">
         <v>106.02335264815068</v>
       </c>
-      <c r="E9">
-        <v>69.641328917078553</v>
-      </c>
-      <c r="F9">
-        <v>74.197477547156097</v>
-      </c>
-      <c r="G9">
+      <c r="D10">
+        <v>69.64132891707855</v>
+      </c>
+      <c r="E10">
+        <v>74.1974775471561</v>
+      </c>
+      <c r="F10">
         <v>75.36275458239497</v>
       </c>
-      <c r="H9">
-        <v>77.266486275099936</v>
-      </c>
-      <c r="I9">
-        <v>79.353775160211285</v>
-      </c>
-      <c r="J9">
-        <v>82.303812911473997</v>
-      </c>
-      <c r="K9">
-        <v>87.053413386810774</v>
-      </c>
-      <c r="L9">
-        <v>93.408342424350323</v>
-      </c>
-      <c r="M9">
+      <c r="G10">
+        <v>77.26648627509994</v>
+      </c>
+      <c r="H10">
+        <v>79.35377516021128</v>
+      </c>
+      <c r="I10">
+        <v>82.303812911474</v>
+      </c>
+      <c r="J10">
+        <v>87.05341338681077</v>
+      </c>
+      <c r="K10">
+        <v>93.40834242435032</v>
+      </c>
+      <c r="L10">
         <v>114.11826769059797</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B10">
-        <v>80.929356341457961</v>
-      </c>
-      <c r="C10">
-        <v>71.703785831533125</v>
-      </c>
-      <c r="D10">
-        <v>106.02335264815068</v>
-      </c>
-      <c r="E10">
-        <v>69.641328917078553</v>
-      </c>
-      <c r="F10">
-        <v>74.197477547156097</v>
-      </c>
-      <c r="G10">
-        <v>75.36275458239497</v>
-      </c>
-      <c r="H10">
-        <v>77.266486275099936</v>
-      </c>
-      <c r="I10">
-        <v>79.353775160211285</v>
-      </c>
-      <c r="J10">
-        <v>82.303812911473997</v>
-      </c>
-      <c r="K10">
-        <v>87.053413386810774</v>
-      </c>
-      <c r="L10">
-        <v>93.408342424350323</v>
-      </c>
-      <c r="M10">
-        <v>114.11826769059797</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>11</v>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>80.61666276537144</v>
       </c>
       <c r="B11">
-        <v>80.616662765371444</v>
+        <v>71.43983486693409</v>
       </c>
       <c r="C11">
-        <v>71.439834866934092</v>
+        <v>113.9987018520907</v>
       </c>
       <c r="D11">
-        <v>113.9987018520907</v>
+        <v>70.40801633897976</v>
       </c>
       <c r="E11">
-        <v>70.408016338979763</v>
+        <v>72.98215630836505</v>
       </c>
       <c r="F11">
-        <v>72.982156308365049</v>
+        <v>74.11769159895081</v>
       </c>
       <c r="G11">
-        <v>74.117691598950813</v>
+        <v>75.86267089635682</v>
       </c>
       <c r="H11">
-        <v>75.862670896356818</v>
+        <v>78.03043109628153</v>
       </c>
       <c r="I11">
-        <v>78.030431096281532</v>
+        <v>81.42843623718191</v>
       </c>
       <c r="J11">
-        <v>81.428436237181913</v>
+        <v>89.26802287170277</v>
       </c>
       <c r="K11">
-        <v>89.268022871702769</v>
+        <v>97.43451758549215</v>
       </c>
       <c r="L11">
-        <v>97.434517585492145</v>
-      </c>
-      <c r="M11">
         <v>124.03722750950243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="1">
-        <f>(B$11-B2)/B2</f>
-        <v>-1.0851145991392575E-2</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" ref="C13:F13" si="0">(C$11-C2)/C2</f>
-        <v>3.3002524601491071E-2</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>0.21884288257502307</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="0"/>
-        <v>-4.0045460074902371E-3</v>
-      </c>
-      <c r="I13" s="1">
-        <f t="shared" ref="I13" si="1">(I$11-I2)/I2</f>
-        <v>-4.5494381819997327E-2</v>
-      </c>
-      <c r="L13" s="1">
-        <f t="shared" ref="L13" si="2">(L$11-L2)/L2</f>
-        <v>0.10157101117659408</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="1">
-        <f>(B$11-B6)/B6</f>
-        <v>-4.2343791157107881E-3</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" ref="C17:F19" si="3">(C$11-C6)/C6</f>
-        <v>-3.5664581598321859E-3</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="3"/>
-        <v>8.3015836848927091E-2</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.692916138852428E-2</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" ref="I17" si="4">(I$11-I6)/I6</f>
-        <v>-1.8505217454689513E-2</v>
-      </c>
-      <c r="L17" s="1">
-        <f t="shared" ref="L17" si="5">(L$11-L6)/L6</f>
-        <v>4.6498823586711015E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="1">
-        <f>(B$11-B8)/B8</f>
-        <v>-3.9579593018491711E-3</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" si="3"/>
-        <v>-3.6697652094261389E-3</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="3"/>
-        <v>7.7195959276574841E-2</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="3"/>
-        <v>-1.6414066944109358E-2</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" ref="I19" si="6">(I$11-I8)/I8</f>
-        <v>-1.7182712984764061E-2</v>
-      </c>
-      <c r="L19" s="1">
-        <f t="shared" ref="L19" si="7">(L$11-L8)/L8</f>
-        <v>4.3780242318627163E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1656,14 +1442,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4808D46-EE3C-A142-B9AB-C1A96E1121DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1671,7 +1457,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1679,12 +1465,117 @@
         <v>-25.81</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
       <c r="B3">
         <v>-34.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>-0.008332840327990991</v>
+      </c>
+      <c r="C2">
+        <v>-0.07000056715678461</v>
+      </c>
+      <c r="D2">
+        <v>0.34973619892130287</v>
+      </c>
+      <c r="E2">
+        <v>-0.0690921090111922</v>
+      </c>
+      <c r="F2">
+        <v>-0.049451820004487286</v>
+      </c>
+      <c r="G2">
+        <v>0.2098466726400393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>-0.0054539223307869394</v>
+      </c>
+      <c r="C3">
+        <v>-0.02834980652851178</v>
+      </c>
+      <c r="D3">
+        <v>0.10966089512830844</v>
+      </c>
+      <c r="E3">
+        <v>-0.027965467787910234</v>
+      </c>
+      <c r="F3">
+        <v>-0.019767685246875156</v>
+      </c>
+      <c r="G3">
+        <v>0.0720805028036206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>-0.005171551431430441</v>
+      </c>
+      <c r="C4">
+        <v>-0.026541101050972158</v>
+      </c>
+      <c r="D4">
+        <v>0.10168570413854892</v>
+      </c>
+      <c r="E4">
+        <v>-0.026180615561716636</v>
+      </c>
+      <c r="F4">
+        <v>-0.0184960878971694</v>
+      </c>
+      <c r="G4">
+        <v>0.06703969492826607</v>
       </c>
     </row>
   </sheetData>
